--- a/methylation_clock_Guth/DNA_plate_quant/2022-2-18-sg_plate12.xlsx
+++ b/methylation_clock_Guth/DNA_plate_quant/2022-2-18-sg_plate12.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shorigan/Documents/GitHub/Epigenetic_Clock/methylation_clock_Guth/DNA_plate_quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{88B4A1CA-40C9-CA48-BDED-7C5DF7A2C2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{19EBD395-6E74-9D4C-9E88-2A59D1291D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14880"/>
+    <workbookView xWindow="19380" yWindow="500" windowWidth="25440" windowHeight="22900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022-2-18-sg_plate12 (1)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -568,7 +579,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1052,13 +1063,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1413,11 +1423,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="K157" sqref="K157"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4826,32 +4836,32 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="158" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B158" s="3" t="s">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>23</v>
+      </c>
+      <c r="B158" t="s">
         <v>104</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158">
         <v>840.61300000000006</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158">
         <v>-0.94299999999999995</v>
       </c>
-      <c r="E158" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G158" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H158" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I158" s="3" t="s">
+      <c r="E158" t="s">
+        <v>23</v>
+      </c>
+      <c r="F158" t="s">
+        <v>23</v>
+      </c>
+      <c r="G158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H158" t="s">
+        <v>23</v>
+      </c>
+      <c r="I158" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5029,90 +5039,90 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B165" s="3" t="s">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>23</v>
+      </c>
+      <c r="B165" t="s">
         <v>111</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165">
         <v>924.12300000000005</v>
       </c>
-      <c r="D165" s="3">
+      <c r="D165">
         <v>-0.152</v>
       </c>
-      <c r="E165" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G165" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H165" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I165" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B166" s="3" t="s">
+      <c r="E165" t="s">
+        <v>23</v>
+      </c>
+      <c r="F165" t="s">
+        <v>23</v>
+      </c>
+      <c r="G165" t="s">
+        <v>23</v>
+      </c>
+      <c r="H165" t="s">
+        <v>23</v>
+      </c>
+      <c r="I165" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>23</v>
+      </c>
+      <c r="B166" t="s">
         <v>112</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166">
         <v>838.66800000000001</v>
       </c>
-      <c r="D166" s="3">
+      <c r="D166">
         <v>-0.96099999999999997</v>
       </c>
-      <c r="E166" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H166" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I166" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B167" s="3" t="s">
+      <c r="E166" t="s">
+        <v>23</v>
+      </c>
+      <c r="F166" t="s">
+        <v>23</v>
+      </c>
+      <c r="G166" t="s">
+        <v>23</v>
+      </c>
+      <c r="H166" t="s">
+        <v>23</v>
+      </c>
+      <c r="I166" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>23</v>
+      </c>
+      <c r="B167" t="s">
         <v>113</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167">
         <v>842.77300000000002</v>
       </c>
-      <c r="D167" s="3">
+      <c r="D167">
         <v>-0.92200000000000004</v>
       </c>
-      <c r="E167" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H167" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I167" s="3" t="s">
+      <c r="E167" t="s">
+        <v>23</v>
+      </c>
+      <c r="F167" t="s">
+        <v>23</v>
+      </c>
+      <c r="G167" t="s">
+        <v>23</v>
+      </c>
+      <c r="H167" t="s">
+        <v>23</v>
+      </c>
+      <c r="I167" t="s">
         <v>23</v>
       </c>
     </row>
